--- a/BurnDown_e_BackLog/Back_Log e Burn_Down.xlsx
+++ b/BurnDown_e_BackLog/Back_Log e Burn_Down.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fatecspgov-my.sharepoint.com/personal/romario_pinheiro_fatec_sp_gov_br/Documents/Documents/GitHub/CodeYCode/BurnDown_e_BackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{46FD9886-47EA-4372-8C19-9625C5A0E874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{503E1B72-02DD-44C1-9A5E-A80B5CBB07C2}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{46FD9886-47EA-4372-8C19-9625C5A0E874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E16B2D98-1D78-47BE-847D-B9835BDF448B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visão geral" sheetId="1" r:id="rId1"/>
@@ -558,16 +558,21 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -601,9 +606,10 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -625,6 +631,253 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -634,6 +887,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -649,10 +903,21 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -666,24 +931,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -723,30 +970,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -756,30 +979,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -795,33 +994,14 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -836,33 +1016,14 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -877,33 +1038,14 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -915,148 +1057,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1629,7 +1629,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2030,7 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4358,17 +4358,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID do Sprint " totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ID do item do backlog" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pontos de história" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="História" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Atribuído a" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Status" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Finalizado em" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Dia do sprint" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ID do Sprint " totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ID do item do backlog" dataDxfId="28" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pontos de história" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="História" dataDxfId="26" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Atribuído a" dataDxfId="25" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Status" dataDxfId="24" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Finalizado em" dataDxfId="23" totalsRowDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Dia do sprint" dataDxfId="22" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(Backlog[[#This Row],[Finalizado em]]),"",Backlog[[#This Row],[Finalizado em]]-$C$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Coluna auxiliar" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Coluna auxiliar" dataDxfId="21" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(Backlog[[#This Row],[Finalizado em]]),"n","y")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4377,18 +4377,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:E24" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle2" displayName="Tabelle2" ref="A3:E24" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A3:E23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Dia do sprint" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Linha ideal" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Dia do sprint" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Linha ideal" dataDxfId="17" totalsRowDxfId="3">
       <calculatedColumnFormula>Backlog[[#Totals],[Pontos de história]]-(Backlog[[#Totals],[Pontos de história]]/'Visão geral'!$E$6*Tabelle2[[#This Row],[Dia do sprint]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Andamento real" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="PS finalizados" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Andamento real" dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="PS finalizados" dataDxfId="15" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Dia do sprint],Tabelle2[[#This Row],[Dia do sprint]],Backlog[Pontos de história]),#N/A)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Aktuell" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Aktuell" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Dia do sprint]],"y","n")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4695,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="E11" s="21">
         <f>COUNT(Backlog!G6:G157)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -5755,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK198"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5931,16 +5931,18 @@
         <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="14">
+        <v>44304</v>
+      </c>
+      <c r="H7" s="2">
+        <f>IF(ISBLANK(Backlog[[#This Row],[Finalizado em]]),"",Backlog[[#This Row],[Finalizado em]]-$C$1)</f>
         <v>20</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="2" t="str">
-        <f>IF(ISBLANK(Backlog[[#This Row],[Finalizado em]]),"",Backlog[[#This Row],[Finalizado em]]-$C$1)</f>
-        <v/>
-      </c>
       <c r="I7" s="1" t="str">
         <f>IF(ISBLANK(Backlog[[#This Row],[Finalizado em]]),"n","y")</f>
-        <v>n</v>
+        <v>y</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -9084,8 +9086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9093,7 +9095,7 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="19" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9536,17 +9538,16 @@
         <f>Backlog[[#Totals],[Pontos de história]]-(Backlog[[#Totals],[Pontos de história]]/'Visão geral'!$E$6*Tabelle2[[#This Row],[Dia do sprint]])</f>
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="e">
+      <c r="C23" s="1">
         <f ca="1">C22-Tabelle2[[#This Row],[PS finalizados]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="1" t="e">
-        <f ca="1">IF(Tabelle2[[#This Row],[Aktuell]]="y",SUMIF(Backlog[Dia do sprint],Tabelle2[[#This Row],[Dia do sprint]],Backlog[Pontos de história]),#N/A)</f>
-        <v>#N/A</v>
+        <v>63</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="str">
         <f ca="1">IF(NOW()&gt;=Backlog!$C$1+Tabelle2[[#This Row],[Dia do sprint]],"y","n")</f>
-        <v>n</v>
+        <v>y</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
